--- a/data/case1/18/Plm1_2.xlsx
+++ b/data/case1/18/Plm1_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.42512175285804688</v>
+        <v>-0.41111872142219852</v>
       </c>
       <c r="B1" s="0">
-        <v>0.4236409898069553</v>
+        <v>0.40981334584981255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.26521518110016196</v>
+        <v>-0.29047129344553468</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26224868701788573</v>
+        <v>0.28689740510936979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.1592957472075085</v>
+        <v>-0.18394193417701388</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15842535117696244</v>
+        <v>0.1827802437601882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14642535130034418</v>
+        <v>-0.17078024383805968</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14565037266856251</v>
+        <v>0.16972336014835498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13965037313909612</v>
+        <v>-0.16372336043372826</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13810404081302075</v>
+        <v>0.16159419018596211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.065080395153028103</v>
+        <v>-0.10947248384668473</v>
       </c>
       <c r="B6" s="0">
-        <v>0.065021726466174101</v>
+        <v>0.10928548478845457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.032999096828934427</v>
+        <v>-0.089285485139184217</v>
       </c>
       <c r="B7" s="0">
-        <v>0.032946300582604948</v>
+        <v>0.088813533518317556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.012946301155963624</v>
+        <v>-0.068813533873430366</v>
       </c>
       <c r="B8" s="0">
-        <v>0.012933867030557877</v>
+        <v>0.068405437149253956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0069338675189687393</v>
+        <v>-0.062405437455806734</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0069282493317315286</v>
+        <v>0.062057885126125534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.00092824982054651173</v>
+        <v>-0.056057885437397204</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00092943058805161627</v>
+        <v>0.056006717998151601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051482056621590999</v>
+        <v>-0.051506718304171528</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051402325714505537</v>
+        <v>0.05142222931673146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045402326205070676</v>
+        <v>-0.045422229629727084</v>
       </c>
       <c r="B12" s="0">
-        <v>0.04515375837437885</v>
+        <v>0.045161896771564347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915375887245709</v>
+        <v>-0.039161897089641684</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039086169960989459</v>
+        <v>0.039090944620749468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027086170498289874</v>
+        <v>-0.027090944963487296</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053597987911182</v>
+        <v>0.027056540073330915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021053598489982228</v>
+        <v>-0.021056540394184253</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027975253901765</v>
+        <v>0.021029448692341468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.01502797575759196</v>
+        <v>-0.015029449014302143</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004412677261048</v>
+        <v>0.015004819672430392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044131830460117</v>
+        <v>-0.0090048199958552289</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994752973933</v>
+        <v>0.0089999996646294989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.1484258091769739</v>
+        <v>-0.058616618479181426</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1480694180088804</v>
+        <v>0.058574178163489421</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10128677563669841</v>
+        <v>-0.049574178442955308</v>
       </c>
       <c r="B19" s="0">
-        <v>0.099709177618356293</v>
+        <v>0.049279265381536153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.090709178101870513</v>
+        <v>-0.018014040178234936</v>
       </c>
       <c r="B20" s="0">
-        <v>0.090342620120844153</v>
+        <v>0.018004324838454266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.081342620608412464</v>
+        <v>-0.0090043251229037224</v>
       </c>
       <c r="B21" s="0">
-        <v>0.080805833326751397</v>
+        <v>0.0089999997152503397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093952940287779896</v>
+        <v>-0.093955471220644071</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093638211684899275</v>
+        <v>0.093639649164542149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084638212166632698</v>
+        <v>-0.084639649455335864</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127528598914481</v>
+        <v>0.084127912558260576</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127529291296817</v>
+        <v>-0.042127912980734372</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999303701685</v>
+        <v>0.04199999957517786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.067023646143709925</v>
+        <v>-0.046121706634643544</v>
       </c>
       <c r="B25" s="0">
-        <v>0.066895883784315657</v>
+        <v>0.046051737928479497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.060895884269193346</v>
+        <v>-0.040051738224342159</v>
       </c>
       <c r="B26" s="0">
-        <v>0.06073541520947856</v>
+        <v>0.039967181164914933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.054735415696060219</v>
+        <v>-0.033967181461515228</v>
       </c>
       <c r="B27" s="0">
-        <v>0.054200287122574853</v>
+        <v>0.033696145170049707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.048200287615772552</v>
+        <v>-0.027696145469221278</v>
       </c>
       <c r="B28" s="0">
-        <v>0.047842562257689458</v>
+        <v>0.02752189403445815</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062540683510418305</v>
+        <v>-0.015521894358267119</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062171272102940378</v>
+        <v>0.015453140110047059</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042171272690260775</v>
+        <v>0.0045468595348814311</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019783110495812</v>
+        <v>-0.004570871055717074</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019783671988762</v>
+        <v>-0.027020058273578229</v>
       </c>
       <c r="B31" s="0">
-        <v>0.02700073380824719</v>
+        <v>0.027000868742218742</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007344074950453</v>
+        <v>-0.0060008691013333504</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994928325862</v>
+        <v>0.0059999996984299031</v>
       </c>
     </row>
   </sheetData>
